--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H2">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>114.8709374423142</v>
+        <v>180.6852437313867</v>
       </c>
       <c r="R2">
-        <v>1033.838436980828</v>
+        <v>1626.16719358248</v>
       </c>
       <c r="S2">
-        <v>0.08445688246597448</v>
+        <v>0.1023163773202081</v>
       </c>
       <c r="T2">
-        <v>0.08445688246597448</v>
+        <v>0.1023163773202081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H3">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>0.2507488952502222</v>
+        <v>0.3348759236797778</v>
       </c>
       <c r="R3">
-        <v>2.256740057252</v>
+        <v>3.013883313118</v>
       </c>
       <c r="S3">
-        <v>0.0001843588156077846</v>
+        <v>0.000189629715493593</v>
       </c>
       <c r="T3">
-        <v>0.0001843588156077846</v>
+        <v>0.0001896297154935929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H4">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>4.898981803871999</v>
+        <v>2.572183051242333</v>
       </c>
       <c r="R4">
-        <v>44.090836234848</v>
+        <v>23.149647461181</v>
       </c>
       <c r="S4">
-        <v>0.003601892172424754</v>
+        <v>0.001456546457101957</v>
       </c>
       <c r="T4">
-        <v>0.003601892172424753</v>
+        <v>0.001456546457101956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H5">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>27.22732141598177</v>
+        <v>25.87977667845345</v>
       </c>
       <c r="R5">
-        <v>245.045892743836</v>
+        <v>232.917990106081</v>
       </c>
       <c r="S5">
-        <v>0.02001842011472798</v>
+        <v>0.01465490452298289</v>
       </c>
       <c r="T5">
-        <v>0.02001842011472798</v>
+        <v>0.01465490452298289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.701028</v>
       </c>
       <c r="I6">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J6">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>816.3737002131227</v>
+        <v>961.5162528534401</v>
       </c>
       <c r="R6">
-        <v>7347.363301918105</v>
+        <v>8653.646275680961</v>
       </c>
       <c r="S6">
-        <v>0.6002247320549362</v>
+        <v>0.5444764480751888</v>
       </c>
       <c r="T6">
-        <v>0.6002247320549363</v>
+        <v>0.5444764480751889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.701028</v>
       </c>
       <c r="I7">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J7">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>1.782041724370667</v>
@@ -883,10 +883,10 @@
         <v>16.038375519336</v>
       </c>
       <c r="S7">
-        <v>0.001310215549866273</v>
+        <v>0.001009114245887865</v>
       </c>
       <c r="T7">
-        <v>0.001310215549866273</v>
+        <v>0.001009114245887866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.701028</v>
       </c>
       <c r="I8">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J8">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>34.816464386496</v>
+        <v>13.687868239868</v>
       </c>
       <c r="R8">
-        <v>313.348179478464</v>
+        <v>123.190814158812</v>
       </c>
       <c r="S8">
-        <v>0.025598207049087</v>
+        <v>0.007751009781527326</v>
       </c>
       <c r="T8">
-        <v>0.025598207049087</v>
+        <v>0.007751009781527326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.701028</v>
       </c>
       <c r="I9">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J9">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>193.5012425786053</v>
+        <v>137.7191926837347</v>
       </c>
       <c r="R9">
-        <v>1741.511183207448</v>
+        <v>1239.472734153612</v>
       </c>
       <c r="S9">
-        <v>0.1422684628972246</v>
+        <v>0.0779860523851717</v>
       </c>
       <c r="T9">
-        <v>0.1422684628972246</v>
+        <v>0.07798605238517171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H10">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>120.3736864205029</v>
+        <v>378.4517659766133</v>
       </c>
       <c r="R10">
-        <v>1083.363177784526</v>
+        <v>3406.06589378952</v>
       </c>
       <c r="S10">
-        <v>0.08850268407636029</v>
+        <v>0.2143053460565243</v>
       </c>
       <c r="T10">
-        <v>0.08850268407636029</v>
+        <v>0.2143053460565243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H11">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>0.2627607083148889</v>
+        <v>0.7014097116202223</v>
       </c>
       <c r="R11">
-        <v>2.364846374834</v>
+        <v>6.312687404582001</v>
       </c>
       <c r="S11">
-        <v>0.0001931902947163734</v>
+        <v>0.0003971862849900601</v>
       </c>
       <c r="T11">
-        <v>0.0001931902947163734</v>
+        <v>0.0003971862849900601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H12">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>5.133661416624</v>
+        <v>5.387530260107667</v>
       </c>
       <c r="R12">
-        <v>46.202952749616</v>
+        <v>48.487772340969</v>
       </c>
       <c r="S12">
-        <v>0.003774436324258715</v>
+        <v>0.003050789137693488</v>
       </c>
       <c r="T12">
-        <v>0.003774436324258714</v>
+        <v>0.003050789137693488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H13">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>28.53161228742911</v>
+        <v>54.20612654789655</v>
       </c>
       <c r="R13">
-        <v>256.784510586862</v>
+        <v>487.855138931069</v>
       </c>
       <c r="S13">
-        <v>0.02097737756109329</v>
+        <v>0.03069522658522508</v>
       </c>
       <c r="T13">
-        <v>0.0209773775610933</v>
+        <v>0.03069522658522508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H14">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>9.431823974844669</v>
+        <v>2.606860812133334</v>
       </c>
       <c r="R14">
-        <v>84.88641577360201</v>
+        <v>23.4617473092</v>
       </c>
       <c r="S14">
-        <v>0.006934586472607516</v>
+        <v>0.001476183383696904</v>
       </c>
       <c r="T14">
-        <v>0.006934586472607516</v>
+        <v>0.001476183383696904</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H15">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>0.02058849256866667</v>
+        <v>0.004831467718888889</v>
       </c>
       <c r="R15">
-        <v>0.185296433118</v>
+        <v>0.04348320947000001</v>
       </c>
       <c r="S15">
-        <v>1.513733530638835E-05</v>
+        <v>2.735908389238151E-06</v>
       </c>
       <c r="T15">
-        <v>1.513733530638835E-05</v>
+        <v>2.73590838923815E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H16">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>0.402245642448</v>
+        <v>0.03711051915166667</v>
       </c>
       <c r="R16">
-        <v>3.620210782032</v>
+        <v>0.333994672365</v>
       </c>
       <c r="S16">
-        <v>0.0002957441952081341</v>
+        <v>2.101452117315964E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002957441952081341</v>
+        <v>2.101452117315964E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H17">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>2.235581154119334</v>
+        <v>0.3733839812072222</v>
       </c>
       <c r="R17">
-        <v>20.120230387074</v>
+        <v>3.360455830865</v>
       </c>
       <c r="S17">
-        <v>0.001643672620600147</v>
+        <v>0.0002114356187454581</v>
       </c>
       <c r="T17">
-        <v>0.001643672620600147</v>
+        <v>0.0002114356187454581</v>
       </c>
     </row>
   </sheetData>
